--- a/氣象性能評估工具V2/data/obs/backup/2016-06-15_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-15_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-15 00:00:00</t>
+    <t>2016-06-15-00</t>
   </si>
   <si>
     <t>22.1</t>
@@ -157,7 +157,7 @@
     <t>29.3</t>
   </si>
   <si>
-    <t>2016-06-15 01:00:00</t>
+    <t>2016-06-15-01</t>
   </si>
   <si>
     <t>21.8</t>
@@ -217,7 +217,7 @@
     <t>29.2</t>
   </si>
   <si>
-    <t>2016-06-15 02:00:00</t>
+    <t>2016-06-15-02</t>
   </si>
   <si>
     <t>23.4</t>
@@ -262,7 +262,7 @@
     <t>29.1</t>
   </si>
   <si>
-    <t>2016-06-15 03:00:00</t>
+    <t>2016-06-15-03</t>
   </si>
   <si>
     <t>23.2</t>
@@ -283,7 +283,7 @@
     <t>28.5</t>
   </si>
   <si>
-    <t>2016-06-15 04:00:00</t>
+    <t>2016-06-15-04</t>
   </si>
   <si>
     <t>22.2</t>
@@ -316,7 +316,7 @@
     <t>25.8</t>
   </si>
   <si>
-    <t>2016-06-15 05:00:00</t>
+    <t>2016-06-15-05</t>
   </si>
   <si>
     <t>22.5</t>
@@ -343,7 +343,7 @@
     <t>29.6</t>
   </si>
   <si>
-    <t>2016-06-15 06:00:00</t>
+    <t>2016-06-15-06</t>
   </si>
   <si>
     <t>22.7</t>
@@ -370,7 +370,7 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>2016-06-15 07:00:00</t>
+    <t>2016-06-15-07</t>
   </si>
   <si>
     <t>28.0</t>
@@ -406,7 +406,7 @@
     <t>30.5</t>
   </si>
   <si>
-    <t>2016-06-15 08:00:00</t>
+    <t>2016-06-15-08</t>
   </si>
   <si>
     <t>25.2</t>
@@ -445,7 +445,7 @@
     <t>33.1</t>
   </si>
   <si>
-    <t>2016-06-15 09:00:00</t>
+    <t>2016-06-15-09</t>
   </si>
   <si>
     <t>31.8</t>
@@ -478,7 +478,7 @@
     <t>32.1</t>
   </si>
   <si>
-    <t>2016-06-15 10:00:00</t>
+    <t>2016-06-15-10</t>
   </si>
   <si>
     <t>31.9</t>
@@ -511,7 +511,7 @@
     <t>34.9</t>
   </si>
   <si>
-    <t>2016-06-15 11:00:00</t>
+    <t>2016-06-15-11</t>
   </si>
   <si>
     <t>25.6</t>
@@ -538,7 +538,7 @@
     <t>34.3</t>
   </si>
   <si>
-    <t>2016-06-15 12:00:00</t>
+    <t>2016-06-15-12</t>
   </si>
   <si>
     <t>33.7</t>
@@ -559,7 +559,7 @@
     <t>34.4</t>
   </si>
   <si>
-    <t>2016-06-15 13:00:00</t>
+    <t>2016-06-15-13</t>
   </si>
   <si>
     <t>35.8</t>
@@ -577,7 +577,7 @@
     <t>33.5</t>
   </si>
   <si>
-    <t>2016-06-15 14:00:00</t>
+    <t>2016-06-15-14</t>
   </si>
   <si>
     <t>35.5</t>
@@ -595,7 +595,7 @@
     <t>32.5</t>
   </si>
   <si>
-    <t>2016-06-15 15:00:00</t>
+    <t>2016-06-15-15</t>
   </si>
   <si>
     <t>29.9</t>
@@ -610,7 +610,7 @@
     <t>34.1</t>
   </si>
   <si>
-    <t>2016-06-15 16:00:00</t>
+    <t>2016-06-15-16</t>
   </si>
   <si>
     <t>31.1</t>
@@ -625,7 +625,7 @@
     <t>33.4</t>
   </si>
   <si>
-    <t>2016-06-15 17:00:00</t>
+    <t>2016-06-15-17</t>
   </si>
   <si>
     <t>15.2</t>
@@ -634,7 +634,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>2016-06-15 18:00:00</t>
+    <t>2016-06-15-18</t>
   </si>
   <si>
     <t>22.3</t>
@@ -646,7 +646,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-15 19:00:00</t>
+    <t>2016-06-15-19</t>
   </si>
   <si>
     <t>13.7</t>
@@ -655,7 +655,7 @@
     <t>5.6</t>
   </si>
   <si>
-    <t>2016-06-15 20:00:00</t>
+    <t>2016-06-15-20</t>
   </si>
   <si>
     <t>13.8</t>
@@ -664,10 +664,10 @@
     <t>6.2</t>
   </si>
   <si>
-    <t>2016-06-15 21:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-15 22:00:00</t>
+    <t>2016-06-15-21</t>
+  </si>
+  <si>
+    <t>2016-06-15-22</t>
   </si>
   <si>
     <t>22.6</t>
@@ -676,7 +676,7 @@
     <t>6.0</t>
   </si>
   <si>
-    <t>2016-06-15 23:00:00</t>
+    <t>2016-06-15-23</t>
   </si>
   <si>
     <t>23.0</t>
